--- a/data_sources/Nepal CPI Trading Economics.xlsx
+++ b/data_sources/Nepal CPI Trading Economics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\ISEG\forecasting_from_hell\data_sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmag\Documents\forecasting_from_hell\data_sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23D2029C-5B9B-48FE-95FB-F6AFC401B6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B413CB-5D42-4883-AD69-DA0158CDA100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C04C9725-CA6F-4284-A91A-AAF7558AB67C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C04C9725-CA6F-4284-A91A-AAF7558AB67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
-  <si>
-    <t>NULL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Date</t>
   </si>
@@ -101,7 +98,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,881 +414,827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2094B6-5F08-459E-A857-31F66ADE88CA}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>41275</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41487</v>
+      </c>
+      <c r="B2">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>41306</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41518</v>
+      </c>
+      <c r="B3">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>41334</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41548</v>
+      </c>
+      <c r="B4">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>41365</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41579</v>
+      </c>
+      <c r="B5">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>41395</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41609</v>
+      </c>
+      <c r="B6">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>41426</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41640</v>
+      </c>
+      <c r="B7">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>41456</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41671</v>
+      </c>
+      <c r="B8">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>41487</v>
+        <v>41699</v>
       </c>
       <c r="B9">
-        <v>92.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>41518</v>
+        <v>41730</v>
       </c>
       <c r="B10">
-        <v>92.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>41548</v>
+        <v>41760</v>
       </c>
       <c r="B11">
-        <v>93.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>41579</v>
+        <v>41791</v>
       </c>
       <c r="B12">
-        <v>93.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>41609</v>
+        <v>41821</v>
       </c>
       <c r="B13">
-        <v>92.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>41640</v>
+        <v>41852</v>
       </c>
       <c r="B14">
-        <v>92.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>41671</v>
+        <v>41883</v>
       </c>
       <c r="B15">
-        <v>92.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>41699</v>
+        <v>41913</v>
       </c>
       <c r="B16">
-        <v>92.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>41730</v>
+        <v>41944</v>
       </c>
       <c r="B17">
-        <v>93.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>41760</v>
+        <v>41974</v>
       </c>
       <c r="B18">
-        <v>94.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>41791</v>
+        <v>42005</v>
       </c>
       <c r="B19">
-        <v>94.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>41821</v>
+        <v>42036</v>
       </c>
       <c r="B20">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>41852</v>
+        <v>42064</v>
       </c>
       <c r="B21">
-        <v>99.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>41883</v>
+        <v>42095</v>
       </c>
       <c r="B22">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>41913</v>
+        <v>42125</v>
       </c>
       <c r="B23">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>41944</v>
+        <v>42156</v>
       </c>
       <c r="B24">
-        <v>100.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>41974</v>
+        <v>42186</v>
       </c>
       <c r="B25">
-        <v>99.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>42005</v>
+        <v>42217</v>
       </c>
       <c r="B26">
-        <v>98.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>42036</v>
+        <v>42248</v>
       </c>
       <c r="B27">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>42064</v>
+        <v>42278</v>
       </c>
       <c r="B28">
-        <v>99.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>108.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>42095</v>
+        <v>42309</v>
       </c>
       <c r="B29">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>42125</v>
+        <v>42339</v>
       </c>
       <c r="B30">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>42156</v>
+        <v>42370</v>
       </c>
       <c r="B31">
-        <v>101.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>42186</v>
+        <v>42401</v>
       </c>
       <c r="B32">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>109.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>42217</v>
+        <v>42430</v>
       </c>
       <c r="B33">
-        <v>106.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>109.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>42248</v>
+        <v>42461</v>
       </c>
       <c r="B34">
-        <v>107.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>42278</v>
+        <v>42491</v>
       </c>
       <c r="B35">
-        <v>108.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>42309</v>
+        <v>42522</v>
       </c>
       <c r="B36">
-        <v>110.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>112.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>42339</v>
+        <v>42552</v>
       </c>
       <c r="B37">
-        <v>110.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>112.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>42370</v>
+        <v>42583</v>
       </c>
       <c r="B38">
-        <v>110.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>42401</v>
+        <v>42614</v>
       </c>
       <c r="B39">
-        <v>109.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>42430</v>
+        <v>42644</v>
       </c>
       <c r="B40">
-        <v>109.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>42461</v>
+        <v>42675</v>
       </c>
       <c r="B41">
-        <v>109.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>42491</v>
+        <v>42705</v>
       </c>
       <c r="B42">
-        <v>111.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>42522</v>
+        <v>42736</v>
       </c>
       <c r="B43">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B44">
+        <v>113.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B45">
         <v>112.4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>42552</v>
-      </c>
-      <c r="B44">
-        <v>112.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>42583</v>
-      </c>
-      <c r="B45">
-        <v>115.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>42614</v>
+        <v>42826</v>
       </c>
       <c r="B46">
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>42644</v>
+        <v>42856</v>
       </c>
       <c r="B47">
-        <v>115.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>42675</v>
+        <v>42887</v>
       </c>
       <c r="B48">
-        <v>116.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115.57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>42705</v>
+        <v>42917</v>
       </c>
       <c r="B49">
-        <v>115.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>42736</v>
+        <v>42948</v>
       </c>
       <c r="B50">
-        <v>113.9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>118.34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>42767</v>
+        <v>42979</v>
       </c>
       <c r="B51">
-        <v>113.38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>119.41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>42795</v>
+        <v>43009</v>
       </c>
       <c r="B52">
-        <v>112.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>119.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>42826</v>
+        <v>43040</v>
       </c>
       <c r="B53">
-        <v>113.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120.59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>42856</v>
+        <v>43070</v>
       </c>
       <c r="B54">
-        <v>115.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>119.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>42887</v>
+        <v>43101</v>
       </c>
       <c r="B55">
-        <v>115.57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>42917</v>
+        <v>43132</v>
       </c>
       <c r="B56">
-        <v>115.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>42948</v>
+        <v>43160</v>
       </c>
       <c r="B57">
-        <v>118.34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>42979</v>
+        <v>43191</v>
       </c>
       <c r="B58">
-        <v>119.41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>43009</v>
+        <v>43221</v>
       </c>
       <c r="B59">
-        <v>119.24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>43040</v>
+        <v>43252</v>
       </c>
       <c r="B60">
-        <v>120.59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>43070</v>
+        <v>43282</v>
       </c>
       <c r="B61">
-        <v>119.92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>121.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>43101</v>
+        <v>43313</v>
       </c>
       <c r="B62">
-        <v>118.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>123.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>43132</v>
+        <v>43344</v>
       </c>
       <c r="B63">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>43160</v>
+        <v>43374</v>
       </c>
       <c r="B64">
-        <v>119.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>43191</v>
+        <v>43405</v>
       </c>
       <c r="B65">
-        <v>119.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>43221</v>
+        <v>43435</v>
       </c>
       <c r="B66">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>43252</v>
+        <v>43466</v>
       </c>
       <c r="B67">
-        <v>120.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>43282</v>
+        <v>43497</v>
       </c>
       <c r="B68">
-        <v>121.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>43313</v>
+        <v>43525</v>
       </c>
       <c r="B69">
-        <v>123.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>43344</v>
+        <v>43556</v>
       </c>
       <c r="B70">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>43374</v>
+        <v>43586</v>
       </c>
       <c r="B71">
-        <v>124.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>126.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>43405</v>
+        <v>43617</v>
       </c>
       <c r="B72">
-        <v>125.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+        <v>127.74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>43435</v>
+        <v>43647</v>
       </c>
       <c r="B73">
-        <v>124.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>128.55000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>43466</v>
+        <v>43678</v>
       </c>
       <c r="B74">
-        <v>123.9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>131.87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>43497</v>
+        <v>43709</v>
       </c>
       <c r="B75">
-        <v>124.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+        <v>131.66999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>43525</v>
+        <v>43739</v>
       </c>
       <c r="B76">
-        <v>124.1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132.56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>43556</v>
+        <v>43770</v>
       </c>
       <c r="B77">
-        <v>124.8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132.82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>43586</v>
+        <v>43800</v>
       </c>
       <c r="B78">
-        <v>126.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132.51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>43617</v>
+        <v>43831</v>
       </c>
       <c r="B79">
-        <v>127.74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132.38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>43647</v>
+        <v>43862</v>
       </c>
       <c r="B80">
-        <v>128.55000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132.76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>43678</v>
+        <v>43891</v>
       </c>
       <c r="B81">
-        <v>131.87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>43709</v>
+        <v>43922</v>
       </c>
       <c r="B82">
-        <v>131.66999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+        <v>133.22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>43739</v>
+        <v>43952</v>
       </c>
       <c r="B83">
-        <v>132.56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+        <v>133.66999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>43770</v>
+        <v>43983</v>
       </c>
       <c r="B84">
-        <v>132.82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>133.54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>43800</v>
+        <v>44013</v>
       </c>
       <c r="B85">
-        <v>132.51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+        <v>134.69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>43831</v>
+        <v>44044</v>
       </c>
       <c r="B86">
-        <v>132.38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+        <v>136.47999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>43862</v>
+        <v>44075</v>
       </c>
       <c r="B87">
-        <v>132.76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+        <v>137.62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>43891</v>
+        <v>44105</v>
       </c>
       <c r="B88">
-        <v>132.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+        <v>137.58000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>43922</v>
+        <v>44136</v>
       </c>
       <c r="B89">
-        <v>133.22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+        <v>138.19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>43952</v>
+        <v>44166</v>
       </c>
       <c r="B90">
-        <v>133.66999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+        <v>136.38999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>43983</v>
+        <v>44197</v>
       </c>
       <c r="B91">
-        <v>133.54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>44013</v>
+        <v>44228</v>
       </c>
       <c r="B92">
-        <v>134.69</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+        <v>136.34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44044</v>
+        <v>44256</v>
       </c>
       <c r="B93">
-        <v>136.47999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+        <v>136.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>44075</v>
+        <v>44287</v>
       </c>
       <c r="B94">
-        <v>137.62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+        <v>137.35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>44105</v>
+        <v>44317</v>
       </c>
       <c r="B95">
-        <v>137.58000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+        <v>138.54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>44136</v>
+        <v>44348</v>
       </c>
       <c r="B96">
-        <v>138.19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+        <v>139.13999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>44166</v>
+        <v>44378</v>
       </c>
       <c r="B97">
-        <v>136.38999999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+        <v>140.33000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>44197</v>
+        <v>44409</v>
       </c>
       <c r="B98">
-        <v>137.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+        <v>142.41999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>44228</v>
+        <v>44440</v>
       </c>
       <c r="B99">
-        <v>136.34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+        <v>142.41999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>44256</v>
+        <v>44470</v>
       </c>
       <c r="B100">
-        <v>136.4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+        <v>143.41999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>44287</v>
+        <v>44501</v>
       </c>
       <c r="B101">
-        <v>137.35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+        <v>145.54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>44317</v>
+        <v>44531</v>
       </c>
       <c r="B102">
-        <v>138.54</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>44348</v>
-      </c>
-      <c r="B103">
-        <v>139.13999999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>44378</v>
-      </c>
-      <c r="B104">
-        <v>140.33000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>44409</v>
-      </c>
-      <c r="B105">
-        <v>142.41999999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>44440</v>
-      </c>
-      <c r="B106">
-        <v>142.41999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>44470</v>
-      </c>
-      <c r="B107">
-        <v>143.41999999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B108">
-        <v>145.54</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>44531</v>
-      </c>
-      <c r="B109">
         <v>146.09</v>
       </c>
     </row>
